--- a/EDT_EAH/bin/Release/Meilleur_planning_eleves.xlsx
+++ b/EDT_EAH/bin/Release/Meilleur_planning_eleves.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Perso\edt-eah\EDT_EAH_Test\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\edt-eah\EDT_EAH\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55427509-2AAB-46A1-8714-E973FE55E4FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B421DF7C-5B02-4BD2-934A-298AE8BE187A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>28/09/2020</t>
+    <t>01/10/2020</t>
   </si>
   <si>
     <t>Chambre</t>
@@ -45,35 +44,44 @@
     <t>A</t>
   </si>
   <si>
-    <t>Oumou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michèle ROUSSEL
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne BOROCCO
 No desc</t>
   </si>
   <si>
+    <t xml:space="preserve">Danièle LEVY
+No desc</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
     <t>Suzon</t>
   </si>
   <si>
-    <t xml:space="preserve">Cécile BLANC
+    <t xml:space="preserve">Paula HARRY
 No desc</t>
   </si>
   <si>
+    <t xml:space="preserve">Sylvie COHEN
+No desc</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Maimouna</t>
+    <t>Maïmouna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude ARDITTY
+No desc</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Shana</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -86,22 +94,28 @@
     <t>Salim</t>
   </si>
   <si>
+    <t xml:space="preserve">Stéphanie DESQUIENS
+No desc</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
+    <t>Mégane</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
+    <t>Nasreddine</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
     <t>Ninon</t>
   </si>
   <si>
-    <t xml:space="preserve">Jean-Pierre REISCH
-No desc</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -117,31 +131,22 @@
     <t>L</t>
   </si>
   <si>
-    <t>Messan</t>
-  </si>
-  <si>
-    <t>HDJ1</t>
-  </si>
-  <si>
-    <t>Mellissandre</t>
-  </si>
-  <si>
-    <t>HDJ2</t>
-  </si>
-  <si>
-    <t>Tiago</t>
-  </si>
-  <si>
-    <t>HDJ3</t>
-  </si>
-  <si>
-    <t>Yaelle</t>
+    <t>HDJ 1</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>HDJ 2</t>
+  </si>
+  <si>
+    <t>HDJ 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-40C]dddd\ d\ mmmm\ yyyy"/>
   </numFmts>
@@ -618,20 +623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E71B71-38E3-4781-BD50-DCBC6B7B6AB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1" style="1"/>
     <col min="2" max="2" bestFit="1" width="10" customWidth="1" style="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1" style="4"/>
-    <col min="4" max="8" width="18.42578125" customWidth="1" style="4"/>
-    <col min="9" max="16384" width="9.140625" customWidth="1" style="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1" style="4"/>
+    <col min="4" max="8" width="18.453125" customWidth="1" style="4"/>
+    <col min="9" max="16384" width="9.1796875" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -680,110 +685,132 @@
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>14</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="15"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="12"/>
       <c r="D7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="14"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="15"/>
+        <v>20</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="13"/>
       <c r="H9" s="14"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -793,59 +820,69 @@
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="H11" s="14"/>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="16" t="s">
+        <v>12</v>
+      </c>
       <c r="E12" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+      <c r="H12" s="17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -855,16 +892,14 @@
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="E15" s="13"/>
       <c r="F15" s="13" t="s">
         <v>7</v>
       </c>
@@ -873,11 +908,9 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>33</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -887,11 +920,9 @@
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="12"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
